--- a/Accounting.DO/_AccountingDB/1160914 Accounting module.xlsx.xlsx
+++ b/Accounting.DO/_AccountingDB/1160914 Accounting module.xlsx.xlsx
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t xml:space="preserve">JOURNAL VOUCHER </t>
-  </si>
-  <si>
-    <t>?check with John</t>
   </si>
   <si>
     <t>FROM ADVANCED SEARCH, DOUBLE CLICK ON A VOUCHER SHOULD OPEN THE VOUCHER</t>
@@ -826,6 +823,9 @@
   <si>
     <t>ref UE-10/01/2017-1 FormJournalChecker.cs ,FormTransactions.cs</t>
   </si>
+  <si>
+    <t xml:space="preserve"> UE-12/01/2017-1</t>
+  </si>
 </sst>
 </file>
 
@@ -4320,10 +4320,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -20707,105 +20707,105 @@
     </row>
     <row r="2" spans="1:16384">
       <c r="A2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:16384">
       <c r="A3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:16384" ht="30" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:16384" ht="30" customHeight="1">
       <c r="A5" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:16384">
       <c r="A6" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:16384" ht="30" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="21"/>
@@ -20831,19 +20831,19 @@
     </row>
     <row r="8" spans="1:16384" ht="45" customHeight="1">
       <c r="A8" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="E8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="5"/>
@@ -20869,208 +20869,208 @@
     </row>
     <row r="9" spans="1:16384">
       <c r="A9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="E9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:16384" ht="30" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:16384">
       <c r="A11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:16384" ht="30" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:16384" ht="30" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>165</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:16384" ht="30" customHeight="1">
       <c r="A14" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:16384" ht="30" customHeight="1">
       <c r="A15" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>171</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:16384">
       <c r="A16" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:27" ht="30">
       <c r="A20" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -21085,13 +21085,13 @@
         <v>5</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:27">
@@ -21105,13 +21105,13 @@
         <v>9</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="30" customHeight="1">
@@ -21122,188 +21122,188 @@
         <v>4</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E23" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>196</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="30" customHeight="1">
       <c r="A26" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="30" customHeight="1">
       <c r="A27" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="D29" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="D30" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="30">
       <c r="A31" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:27" ht="19.5" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -21329,20 +21329,20 @@
     </row>
     <row r="33" spans="1:27" ht="30">
       <c r="A33" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -21368,22 +21368,22 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="D34" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -21409,102 +21409,102 @@
     </row>
     <row r="35" spans="1:27" ht="30">
       <c r="A35" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:27" ht="60">
       <c r="A39" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="7"/>
@@ -21530,22 +21530,22 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="D40" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="8"/>
@@ -21571,140 +21571,140 @@
     </row>
     <row r="41" spans="1:27" ht="30">
       <c r="A41" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>147</v>
-      </c>
       <c r="D41" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:27" ht="30" customHeight="1">
       <c r="A42" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G43" s="7"/>
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="D44" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E44" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F44" s="20" t="s">
         <v>213</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>214</v>
       </c>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:27" s="14" customFormat="1">
       <c r="A45" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G45" s="5"/>
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" spans="1:27">
       <c r="A47" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F47" s="20">
         <v>42712</v>
@@ -21712,109 +21712,109 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E48" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F48" s="13" t="s">
         <v>201</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="D49" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>240</v>
       </c>
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="8"/>
       <c r="E52" s="3"/>
       <c r="F52" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -29406,8 +29406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -29432,161 +29432,161 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="19.5" customHeight="1">
       <c r="A5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F6" s="30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>61</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>62</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>63</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="7"/>
@@ -29612,132 +29612,132 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G13" s="5"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G14" s="5"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>182</v>
       </c>
       <c r="G16" s="5"/>
     </row>
@@ -29781,10 +29781,10 @@
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -29798,32 +29798,32 @@
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="5"/>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="19" t="s">
@@ -29836,13 +29836,13 @@
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="19" t="s">
@@ -29855,7 +29855,7 @@
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -29870,13 +29870,13 @@
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="19" t="s">
@@ -29908,32 +29908,32 @@
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="19" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="19" t="s">
@@ -29946,13 +29946,13 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="19" t="s">
@@ -29994,260 +29994,260 @@
         <v>20</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>21</v>
+        <v>250</v>
       </c>
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:28" s="5" customFormat="1">
       <c r="A29" s="8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:28" s="5" customFormat="1">
       <c r="A30" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:28" s="5" customFormat="1">
       <c r="A31" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:28" s="5" customFormat="1">
       <c r="A32" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="D33" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="D34" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G34" s="5"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F36" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="D38" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="D39" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="D41" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="D42" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F42" s="8"/>
     </row>
@@ -30262,10 +30262,10 @@
         <v>12</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F43" s="8" t="s">
         <v>13</v>
@@ -30273,22 +30273,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -38001,47 +38001,47 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="D2" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D3" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -38049,15 +38049,15 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -38065,15 +38065,15 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -38081,19 +38081,19 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -38101,19 +38101,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -38121,19 +38121,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="D8" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -38141,19 +38141,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -38161,19 +38161,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -38181,19 +38181,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F11">
         <v>1</v>
